--- a/src/test/resources/co.com.choucair.certificacion.retotecnico/datadriver/paginas/edicionrapidapagina.xlsx
+++ b/src/test/resources/co.com.choucair.certificacion.retotecnico/datadriver/paginas/edicionrapidapagina.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO-PC\Desktop\RetoTecnicoChoucair\src\test\resources\co.com.choucair.certificacion.retotecnico\datadriver\publicaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO-PC\Desktop\RetoTecnicoChoucair\src\test\resources\co.com.choucair.certificacion.retotecnico\datadriver\paginas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E88158B-06B2-4FF4-9A01-CEB933DF9723}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61524747-3E9D-44B4-AFB6-131995C9CCAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B98D30E1-C5C4-4494-A40C-6E9EA5FB1809}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
